--- a/data_documentation/Data_Documentation.xlsx
+++ b/data_documentation/Data_Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\nhddi\lareich\Descriptive_DDI\GitHub_Repository\current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF4EC3B-B5A9-4A2D-AB15-DBEB593913B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A896285-543E-43BA-AA8E-BD7FF817CFE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3585" windowHeight="210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3585" windowHeight="210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview" sheetId="1" r:id="rId1"/>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>max_enddt</t>
-  </si>
-  <si>
-    <t>Steps to Identify DDI Exposure</t>
   </si>
   <si>
     <r>
@@ -465,12 +462,6 @@
     <t>Minimum Data Set (MDS) Version 3.0 Clinical Assessments</t>
   </si>
   <si>
-    <t>Nursing home stay start date</t>
-  </si>
-  <si>
-    <t>Nursing home stay end date</t>
-  </si>
-  <si>
     <t>Statement of Purpose/Research Question:</t>
   </si>
   <si>
@@ -1384,9 +1375,6 @@
   </si>
   <si>
     <t>CFS_fill</t>
-  </si>
-  <si>
-    <t>Most recent CFS score prior to the start of the NH stay</t>
   </si>
   <si>
     <t>Beneficiary date of birth</t>
@@ -1478,9 +1466,6 @@
   </si>
   <si>
     <t>Flag for continuously enrolled in Medicare Part A, B, and D Fee-For-Service AND no Medicare Advantage Enrollment in the 12 months prior to NH stay</t>
-  </si>
-  <si>
-    <t>Nursing home stay length in days</t>
   </si>
   <si>
     <t>Start date of DDI exposure</t>
@@ -1562,41 +1547,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">EXAMPLE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">fluoxetine-olanzapine consists of 2 CNS-active drugs. Therefore, dispensings of this compound medication will be duplicated for the DDI component "CNS-active drugs." </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Core_drug</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will be "fluoxetine" for one record and "olanzapine" for the other. This ensures that we make medication use episodes for each drug of interest.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1757,19 +1707,10 @@
     <t>5. For every episode of DDI exposure, calculate the total days where the beneficiary was exposed to the DDI.</t>
   </si>
   <si>
-    <t>Creating non-overlapping periods/episodes of medication use during NH time (0_Create_Dispensings_Datasets.sas &amp; 1_Create_Med_Eps.sas)</t>
-  </si>
-  <si>
     <t xml:space="preserve">4. Create continuous episodes of DDI exposure where any consecutive concurrent use episodes 1 day apart are considered to be part of the same episode of DDI exposure. </t>
   </si>
   <si>
     <t>Age (in years) at the start of the NH stay</t>
-  </si>
-  <si>
-    <t>Ever diagnosis (1999 and later) of CKD, prior to the start of the NH stay</t>
-  </si>
-  <si>
-    <t>Ever diagnosis (1999 and later) of ADRD, prior to the start of the NH stay</t>
   </si>
   <si>
     <t>Generic drug (without specification of salt form) being used concurrently, #2</t>
@@ -1809,6 +1750,65 @@
   </si>
   <si>
     <t>Medication supply end date WITHIN NH time</t>
+  </si>
+  <si>
+    <t>Steps to Identify Drug Interaction (DDI) Exposure</t>
+  </si>
+  <si>
+    <t>Creating non-overlapping periods/episodes of medication use during nursing home (NH) time (0_Create_Dispensings_Datasets.sas &amp; 1_Create_Med_Eps.sas)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EXAMPLE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fluoxetine-olanzapine consists of 2 central nervous system (CNS)-active drugs. Therefore, dispensings of this compound medication will be duplicated for the DDI component "CNS-active drugs." </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Core_drug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be "fluoxetine" for one record and "olanzapine" for the other. This ensures that we make medication use episodes for each drug of interest.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nursing home (NH) stay start date</t>
+  </si>
+  <si>
+    <t>Nursing home (NH) stay end date</t>
+  </si>
+  <si>
+    <t>Nursing home (NH) stay length in days</t>
+  </si>
+  <si>
+    <t>Ever diagnosis (1999 and later) of Alzheimer's disease or related dementias (ADRD), prior to the start of the NH stay</t>
+  </si>
+  <si>
+    <t>Ever diagnosis (1999 and later) of chronic kidney disease (CKD), prior to the start of the NH stay</t>
+  </si>
+  <si>
+    <t>Most recent Cognitive Function Scale (CFS) score prior to the start of the NH stay</t>
   </si>
 </sst>
 </file>
@@ -1944,6 +1944,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1959,21 +1971,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2364,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2375,17 +2375,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,10 +2452,10 @@
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2483,10 +2483,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -2521,24 +2521,24 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2556,173 +2556,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5263BDBF-A0AC-4F0B-8221-2A44BB5A34C4}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="C35" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2743,25 +2743,25 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -2771,112 +2771,112 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -2890,7 +2890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF662B4-9A4F-4C33-9D91-30CF81DA53AB}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -2905,2603 +2905,2603 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="C2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="12">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="12">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="17">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="12">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="12">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="12">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="12">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="12">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="12">
+        <v>3</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="12">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="12">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="12">
+        <v>3</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="17">
+        <v>3</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="12">
+        <v>3</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="17">
+        <v>3</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="12">
+        <v>3</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="12">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="12">
+        <v>3</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="12">
         <v>15</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="E33" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="17">
-        <v>13</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="D34" s="12">
+        <v>8</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="12">
+        <v>8</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="12">
+        <v>3</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="12">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="12">
+        <v>6</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="17">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="12">
         <v>6</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="E40" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="12">
+        <v>5</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="12">
+        <v>5</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="12">
+        <v>5</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="12">
+        <v>5</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="12">
+        <v>5</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="12">
+        <v>5</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="12">
+        <v>5</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="12">
+        <v>5</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="12">
+        <v>5</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="12">
+        <v>5</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="12">
+        <v>5</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="12">
+        <v>5</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="12">
+        <v>1</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="12">
+        <v>1</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="12">
+        <v>1</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="12">
+        <v>1</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="12">
+        <v>1</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="12">
+        <v>1</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="12">
+        <v>1</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="12">
+        <v>1</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="12">
+        <v>15</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="12">
+        <v>15</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="12">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="12">
         <v>8</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="17">
-        <v>3</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="17">
-        <v>3</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="E80" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="12">
+        <v>255</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="12">
+        <v>255</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="12">
+        <v>255</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="12">
+        <v>255</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="12">
+        <v>255</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="12">
+        <v>255</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="12">
+        <v>255</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="12">
+        <v>255</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="12">
+        <v>255</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="12">
+        <v>255</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="12">
+        <v>255</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="12">
+        <v>255</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="12">
+        <v>255</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="12">
+        <v>255</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="12">
+        <v>255</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" s="12">
+        <v>15</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="12">
         <v>8</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="E97" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="12">
+        <v>15</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" s="12">
         <v>8</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="17">
-        <v>3</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="E99" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="12">
+        <v>7</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="12">
+        <v>7</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="12">
+        <v>7</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" s="12">
+        <v>7</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" s="12">
+        <v>7</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="12">
+        <v>7</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="12">
+        <v>7</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="12">
+        <v>7</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" s="12">
+        <v>7</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" s="12">
+        <v>7</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" s="12">
+        <v>7</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111" s="12">
+        <v>7</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D112" s="12">
+        <v>7</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" s="12">
+        <v>7</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="12">
+        <v>7</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D115" s="12">
+        <v>7</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D116" s="12">
+        <v>7</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" s="12">
+        <v>7</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D118" s="12">
+        <v>7</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" s="12">
+        <v>7</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" s="12">
+        <v>7</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="12">
+        <v>7</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="12">
+        <v>7</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" s="12">
+        <v>7</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D124" s="12">
+        <v>7</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D125" s="12">
+        <v>1</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D126" s="12">
+        <v>1</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D127" s="12">
+        <v>1</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D128" s="12">
+        <v>1</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" s="12">
+        <v>1</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D130" s="12">
+        <v>1</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D131" s="12">
+        <v>1</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D132" s="12">
+        <v>1</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D133" s="12">
+        <v>1</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D134" s="12">
+        <v>1</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="12">
+        <v>1</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D136" s="12">
+        <v>1</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" s="12">
+        <v>1</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D138" s="12">
+        <v>1</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" s="12">
+        <v>1</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" s="12">
+        <v>1</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D141" s="12">
+        <v>1</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" s="12">
+        <v>1</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" s="12">
+        <v>1</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D144" s="12">
+        <v>1</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D145" s="12">
+        <v>1</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" s="12">
+        <v>1</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D147" s="12">
+        <v>1</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D148" s="12">
+        <v>1</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" s="12">
+        <v>1</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D150" s="12">
+        <v>15</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="12">
         <v>8</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="17">
-        <v>12</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="17">
-        <v>3</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="E151" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="17">
-        <v>3</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="17">
-        <v>3</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="17">
-        <v>3</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="17">
-        <v>3</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="17">
-        <v>3</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="17">
-        <v>3</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="17">
-        <v>3</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="17">
-        <v>3</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="23">
-        <v>3</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="17">
-        <v>3</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="17">
-        <v>3</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="17">
-        <v>3</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="17">
-        <v>3</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="23">
-        <v>3</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="17">
-        <v>3</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="17">
-        <v>3</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="17">
-        <v>3</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="B152" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" s="12">
         <v>15</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="E152" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153" s="12">
         <v>8</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="17">
-        <v>8</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="17">
-        <v>3</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="17">
-        <v>3</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="17">
-        <v>6</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="17">
-        <v>6</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="17">
-        <v>5</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="17">
-        <v>5</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="17">
-        <v>5</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="17">
-        <v>5</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="17">
-        <v>5</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="17">
-        <v>5</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="17">
-        <v>5</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="17">
-        <v>5</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="17">
-        <v>5</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="17">
-        <v>5</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="17">
-        <v>5</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="17">
-        <v>5</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="17">
-        <v>1</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="17">
-        <v>1</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="17">
-        <v>1</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="17">
-        <v>1</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="17">
-        <v>1</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="17">
-        <v>1</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="17">
-        <v>1</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="17">
-        <v>1</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="17">
-        <v>1</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="17">
-        <v>1</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="17">
-        <v>1</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="17">
-        <v>1</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="17">
-        <v>1</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="17">
-        <v>1</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="17">
-        <v>1</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="17">
-        <v>1</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="17">
-        <v>1</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="17">
-        <v>1</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="17">
-        <v>1</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="17">
-        <v>1</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="17">
-        <v>1</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74" s="17">
-        <v>1</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" s="17">
-        <v>1</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="17">
-        <v>1</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="17">
-        <v>15</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="17">
-        <v>15</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" s="17">
-        <v>3</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="17">
-        <v>8</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" s="17">
-        <v>255</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" s="17">
-        <v>255</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D83" s="17">
-        <v>255</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D84" s="17">
-        <v>255</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="17">
-        <v>255</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" s="17">
-        <v>255</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87" s="17">
-        <v>255</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" s="17">
-        <v>255</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" s="17">
-        <v>255</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="17">
-        <v>255</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D91" s="17">
-        <v>255</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" s="17">
-        <v>255</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D93" s="17">
-        <v>255</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" s="17">
-        <v>255</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" s="17">
-        <v>255</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="17">
-        <v>15</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" s="17">
-        <v>8</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="17">
-        <v>15</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" s="17">
-        <v>8</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" s="17">
-        <v>7</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D101" s="17">
-        <v>7</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" s="17">
-        <v>7</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" s="17">
-        <v>7</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" s="17">
-        <v>7</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="17">
-        <v>7</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D106" s="17">
-        <v>7</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107" s="17">
-        <v>7</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" s="17">
-        <v>7</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D109" s="17">
-        <v>7</v>
-      </c>
-      <c r="E109" s="17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" s="17">
-        <v>7</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D111" s="17">
-        <v>7</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D112" s="17">
-        <v>7</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D113" s="17">
-        <v>7</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="17">
-        <v>7</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D115" s="17">
-        <v>7</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D116" s="17">
-        <v>7</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D117" s="17">
-        <v>7</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D118" s="17">
-        <v>7</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D119" s="17">
-        <v>7</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D120" s="17">
-        <v>7</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D121" s="17">
-        <v>7</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D122" s="17">
-        <v>7</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D123" s="17">
-        <v>7</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D124" s="17">
-        <v>7</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D125" s="17">
-        <v>1</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D126" s="17">
-        <v>1</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D127" s="17">
-        <v>1</v>
-      </c>
-      <c r="E127" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D128" s="17">
-        <v>1</v>
-      </c>
-      <c r="E128" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D129" s="17">
-        <v>1</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D130" s="17">
-        <v>1</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D131" s="17">
-        <v>1</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D132" s="17">
-        <v>1</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D133" s="17">
-        <v>1</v>
-      </c>
-      <c r="E133" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D134" s="17">
-        <v>1</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D135" s="17">
-        <v>1</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D136" s="17">
-        <v>1</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D137" s="17">
-        <v>1</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D138" s="17">
-        <v>1</v>
-      </c>
-      <c r="E138" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D139" s="17">
-        <v>1</v>
-      </c>
-      <c r="E139" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D140" s="17">
-        <v>1</v>
-      </c>
-      <c r="E140" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D141" s="17">
-        <v>1</v>
-      </c>
-      <c r="E141" s="17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D142" s="17">
-        <v>1</v>
-      </c>
-      <c r="E142" s="17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D143" s="17">
-        <v>1</v>
-      </c>
-      <c r="E143" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D144" s="17">
-        <v>1</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D145" s="17">
-        <v>1</v>
-      </c>
-      <c r="E145" s="17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D146" s="17">
-        <v>1</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D147" s="17">
-        <v>1</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D148" s="17">
-        <v>1</v>
-      </c>
-      <c r="E148" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D149" s="17">
-        <v>1</v>
-      </c>
-      <c r="E149" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D150" s="17">
-        <v>15</v>
-      </c>
-      <c r="E150" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D151" s="17">
-        <v>8</v>
-      </c>
-      <c r="E151" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B152" s="17" t="s">
+      <c r="E153" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" s="17">
-        <v>15</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D153" s="17">
-        <v>8</v>
-      </c>
-      <c r="E153" s="17" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5514,8 +5514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73C0F99-B80A-4E86-8070-13C70D8341CC}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5537,20 +5537,20 @@
         <v>27</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>34</v>
@@ -5569,32 +5569,32 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5603,13 +5603,13 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>92</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5618,13 +5618,13 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>93</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5633,13 +5633,13 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5648,10 +5648,10 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>48</v>
@@ -5663,13 +5663,13 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5681,10 +5681,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5693,13 +5693,13 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5708,13 +5708,13 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5726,10 +5726,10 @@
         <v>51</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5738,13 +5738,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5753,13 +5753,13 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5771,10 +5771,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5786,65 +5786,65 @@
         <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>470</v>
+        <v>419</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="A22" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>34</v>
@@ -5863,15 +5863,15 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5879,14 +5879,14 @@
         <v>32</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5894,14 +5894,14 @@
         <v>63</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5910,13 +5910,13 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5925,23 +5925,23 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>34</v>
@@ -5960,115 +5960,115 @@
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>407</v>
+      <c r="A32" s="16" t="s">
+        <v>403</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>408</v>
+      <c r="A33" s="16" t="s">
+        <v>404</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>413</v>
+      <c r="A34" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>409</v>
+      <c r="A35" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>410</v>
+      <c r="A36" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>411</v>
+      <c r="A37" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>34</v>
@@ -6091,13 +6091,13 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6106,13 +6106,13 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6121,13 +6121,13 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/data_documentation/Data_Documentation.xlsx
+++ b/data_documentation/Data_Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\nhddi\lareich\Descriptive_DDI\GitHub_Repository\current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A896285-543E-43BA-AA8E-BD7FF817CFE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC2B69-FC6A-4817-B959-3E8C7DB1CD90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3585" windowHeight="210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3585" windowHeight="210" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview" sheetId="1" r:id="rId1"/>
@@ -447,9 +447,6 @@
     <t>5. Calculate the number of days of medication use overlap for each record.</t>
   </si>
   <si>
-    <t xml:space="preserve">Prevalence and Duration of Potential Drug Interactions Among US Nursing Home Residents, 2018-2020 </t>
-  </si>
-  <si>
     <t>Kaleen N. Hayes</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
   </si>
   <si>
     <t>Statement of Purpose/Research Question:</t>
-  </si>
-  <si>
-    <t>What is the prevalence and duration of exposure to potentially clinically relevant drug interactions among United States nursing home residents?</t>
   </si>
   <si>
     <t>MDS/MBSF/MedPAR inpatient and SNF</t>
@@ -1750,9 +1744,6 @@
   </si>
   <si>
     <t>Medication supply end date WITHIN NH time</t>
-  </si>
-  <si>
-    <t>Steps to Identify Drug Interaction (DDI) Exposure</t>
   </si>
   <si>
     <t>Creating non-overlapping periods/episodes of medication use during nursing home (NH) time (0_Create_Dispensings_Datasets.sas &amp; 1_Create_Med_Eps.sas)</t>
@@ -1809,6 +1800,15 @@
   </si>
   <si>
     <t>Most recent Cognitive Function Scale (CFS) score prior to the start of the NH stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalence and Duration of Potential Drug-Drug Interactions Among US Nursing Home Residents, 2018-2020 </t>
+  </si>
+  <si>
+    <t>What is the prevalence and duration of exposure to potentially clinically relevant drug-drug interactions among United States nursing home residents?</t>
+  </si>
+  <si>
+    <t>Steps to Identify Drug-Drug Interaction (DDI) Exposure</t>
   </si>
 </sst>
 </file>
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,10 +2452,10 @@
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -2556,25 +2556,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5263BDBF-A0AC-4F0B-8221-2A44BB5A34C4}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2584,7 +2582,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2599,7 +2597,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2659,7 +2657,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2667,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,35 +2692,35 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="C35" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2743,25 +2741,25 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -2771,112 +2769,112 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -2905,1294 +2903,1294 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="12">
         <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12">
         <v>13</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="12">
         <v>6</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="12">
         <v>8</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="12">
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="12">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="12">
         <v>8</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="12">
         <v>8</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="12">
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="12">
         <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="12">
         <v>12</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="12">
         <v>3</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="12">
         <v>3</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="12">
         <v>3</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="12">
         <v>3</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="12">
         <v>3</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="12">
         <v>3</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="12">
         <v>3</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="12">
         <v>3</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="12">
         <v>3</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="17">
         <v>3</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="12">
         <v>3</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="12">
         <v>3</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="12">
         <v>3</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="12">
         <v>3</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="17">
         <v>3</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="12">
         <v>3</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D31" s="12">
         <v>3</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="12">
         <v>15</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="12">
         <v>8</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="12">
         <v>8</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="12">
         <v>3</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" s="12">
         <v>3</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" s="12">
         <v>6</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="12">
         <v>6</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="C41" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="12">
         <v>5</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" s="12">
         <v>5</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="12">
         <v>5</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" s="12">
         <v>5</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" s="12">
         <v>5</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D46" s="12">
         <v>5</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" s="12">
         <v>5</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48" s="12">
         <v>5</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" s="12">
         <v>5</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" s="12">
         <v>5</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" s="12">
         <v>5</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" s="12">
         <v>5</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53" s="12">
         <v>1</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54" s="12">
         <v>1</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" s="12">
         <v>1</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D59" s="12">
         <v>1</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D60" s="12">
         <v>1</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D61" s="12">
         <v>1</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D62" s="12">
         <v>1</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" s="12">
         <v>1</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D64" s="12">
         <v>1</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" s="12">
         <v>1</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D66" s="12">
         <v>1</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D67" s="12">
         <v>1</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D68" s="12">
         <v>1</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D69" s="12">
         <v>1</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D70" s="12">
         <v>1</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D71" s="12">
         <v>1</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D72" s="12">
         <v>1</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D73" s="12">
         <v>1</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D74" s="12">
         <v>1</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D75" s="12">
         <v>1</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D76" s="12">
         <v>1</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4203,13 +4201,13 @@
         <v>33</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D77" s="12">
         <v>15</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4217,16 +4215,16 @@
         <v>49</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D78" s="12">
         <v>15</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,13 +4235,13 @@
         <v>30</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D79" s="12">
         <v>3</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,13 +4252,13 @@
         <v>29</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D80" s="12">
         <v>8</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4271,7 +4269,7 @@
         <v>52</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D81" s="12">
         <v>255</v>
@@ -4288,7 +4286,7 @@
         <v>53</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D82" s="12">
         <v>255</v>
@@ -4305,7 +4303,7 @@
         <v>54</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D83" s="12">
         <v>255</v>
@@ -4322,7 +4320,7 @@
         <v>55</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D84" s="12">
         <v>255</v>
@@ -4336,16 +4334,16 @@
         <v>49</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D85" s="12">
         <v>255</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,16 +4351,16 @@
         <v>49</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D86" s="12">
         <v>255</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4370,16 +4368,16 @@
         <v>49</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D87" s="12">
         <v>255</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4387,16 +4385,16 @@
         <v>49</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D88" s="12">
         <v>255</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4404,16 +4402,16 @@
         <v>49</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D89" s="12">
         <v>255</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4421,16 +4419,16 @@
         <v>49</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D90" s="12">
         <v>255</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4438,16 +4436,16 @@
         <v>49</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D91" s="12">
         <v>255</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4455,16 +4453,16 @@
         <v>49</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D92" s="12">
         <v>255</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4472,16 +4470,16 @@
         <v>49</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D93" s="12">
         <v>255</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4492,7 +4490,7 @@
         <v>31</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D94" s="12">
         <v>255</v>
@@ -4506,1002 +4504,1002 @@
         <v>49</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D95" s="12">
         <v>255</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D96" s="12">
         <v>15</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D97" s="12">
         <v>8</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>244</v>
-      </c>
       <c r="C98" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D98" s="12">
         <v>15</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D99" s="12">
         <v>8</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D100" s="12">
         <v>7</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D101" s="12">
         <v>7</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D102" s="12">
         <v>7</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D103" s="12">
         <v>7</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D104" s="12">
         <v>7</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D105" s="12">
         <v>7</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D106" s="12">
         <v>7</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D107" s="12">
         <v>7</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D108" s="12">
         <v>7</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D109" s="12">
         <v>7</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D110" s="12">
         <v>7</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D111" s="12">
         <v>7</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D112" s="12">
         <v>7</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D113" s="12">
         <v>7</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D114" s="12">
         <v>7</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D115" s="12">
         <v>7</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D116" s="12">
         <v>7</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D117" s="12">
         <v>7</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D118" s="12">
         <v>7</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D119" s="12">
         <v>7</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D120" s="12">
         <v>7</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D121" s="12">
         <v>7</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D122" s="12">
         <v>7</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D123" s="12">
         <v>7</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D124" s="12">
         <v>7</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D125" s="12">
         <v>1</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D126" s="12">
         <v>1</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D127" s="12">
         <v>1</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D128" s="12">
         <v>1</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D129" s="12">
         <v>1</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D130" s="12">
         <v>1</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D131" s="12">
         <v>1</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D132" s="12">
         <v>1</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D133" s="12">
         <v>1</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D134" s="12">
         <v>1</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D135" s="12">
         <v>1</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D136" s="12">
         <v>1</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D137" s="12">
         <v>1</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D138" s="12">
         <v>1</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D139" s="12">
         <v>1</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D140" s="12">
         <v>1</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D141" s="12">
         <v>1</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D142" s="12">
         <v>1</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D143" s="12">
         <v>1</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D144" s="12">
         <v>1</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D145" s="12">
         <v>1</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D146" s="12">
         <v>1</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D147" s="12">
         <v>1</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D148" s="12">
         <v>1</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D149" s="12">
         <v>1</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D150" s="12">
         <v>15</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B151" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="C151" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D151" s="12">
         <v>8</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D152" s="12">
         <v>15</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D153" s="12">
         <v>8</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5537,7 +5535,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>28</v>
@@ -5545,7 +5543,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -5561,7 +5559,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>34</v>
@@ -5569,32 +5567,32 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5603,13 +5601,13 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5618,13 +5616,13 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5633,13 +5631,13 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5648,10 +5646,10 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>48</v>
@@ -5663,13 +5661,13 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5681,10 +5679,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5693,13 +5691,13 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5708,13 +5706,13 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5726,10 +5724,10 @@
         <v>51</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5738,13 +5736,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5753,13 +5751,13 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5771,10 +5769,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5786,60 +5784,60 @@
         <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -5855,7 +5853,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>34</v>
@@ -5863,15 +5861,15 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5883,10 +5881,10 @@
         <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5898,10 +5896,10 @@
         <v>49</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5910,13 +5908,13 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5925,18 +5923,18 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -5952,7 +5950,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>34</v>
@@ -5960,110 +5958,110 @@
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -6079,7 +6077,7 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>34</v>
@@ -6091,13 +6089,13 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6106,13 +6104,13 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6121,13 +6119,13 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
